--- a/example_xlsx_file/claproject_items.xlsx
+++ b/example_xlsx_file/claproject_items.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d68eeb3d7cb42064/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\project-b-26\example_xlsx_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{7E9D9F72-7C57-4C5C-8CE4-BDE5D3DEC9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1899ED-5704-48D1-8B84-B8CCF8D7DE8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A879781-898D-4667-8B2F-EEEE2CE89549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{3A044267-A42C-498D-AA7B-CBC183F9B4B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>title</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>calculator1</t>
+  </si>
+  <si>
+    <t>10 Y St</t>
+  </si>
+  <si>
+    <t>test_calc</t>
+  </si>
+  <si>
+    <t>calculators</t>
+  </si>
+  <si>
+    <t>charger1</t>
+  </si>
+  <si>
+    <t>10 Y st</t>
+  </si>
+  <si>
+    <t>test_charger</t>
+  </si>
+  <si>
+    <t>chargers</t>
   </si>
 </sst>
 </file>
@@ -436,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FB35D-F08A-43FA-9998-D87B8F67F684}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,6 +584,64 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
